--- a/zib2017-2020/mapping/excel/VermogenTotToiletgang.xlsx
+++ b/zib2017-2020/mapping/excel/VermogenTotToiletgang.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="31">
   <si>
     <t>ZibName</t>
   </si>
@@ -464,7 +464,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -609,25 +609,25 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
         <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I5" t="s">
         <v>25</v>
@@ -648,100 +648,6 @@
         <v>28</v>
       </c>
       <c r="O5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" t="s">
-        <v>26</v>
-      </c>
-      <c r="K6" t="s">
-        <v>27</v>
-      </c>
-      <c r="L6" t="s">
-        <v>28</v>
-      </c>
-      <c r="M6" t="s">
-        <v>29</v>
-      </c>
-      <c r="N6" t="s">
-        <v>28</v>
-      </c>
-      <c r="O6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M7" t="s">
-        <v>29</v>
-      </c>
-      <c r="N7" t="s">
-        <v>28</v>
-      </c>
-      <c r="O7" t="s">
         <v>30</v>
       </c>
     </row>

--- a/zib2017-2020/mapping/excel/VermogenTotToiletgang.xlsx
+++ b/zib2017-2020/mapping/excel/VermogenTotToiletgang.xlsx
@@ -7,8 +7,11 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="translations" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">translations!$A$1:$O$5</definedName>
+  </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
@@ -174,7 +177,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE403"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA003"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -469,6 +501,13 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="40.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="5" width="40.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="15" width="40.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
@@ -652,6 +691,21 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:O5"/>
+  <conditionalFormatting sqref="E2:E5">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"groen: geen wijzigingen"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"geel: patch wijziging"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"oranje: minor change"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>"rood: major change"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>